--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Ménégaux/Auguste_Ménégaux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Ménégaux/Auguste_Ménégaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_M%C3%A9n%C3%A9gaux</t>
+          <t>Auguste_Ménégaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Auguste Ménégaux, né le 17 mai 1857 à Audincourt et mort le 15 juillet 1937, est un ornithologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_M%C3%A9n%C3%A9gaux</t>
+          <t>Auguste_Ménégaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégé de sciences naturelles, il enseigne dans le secondaire avant de soutenir à la Sorbonne une thèse en 1889 intitulée Recherches sur la circulation des Lamellibranches marins, elle paraît à Besançon en 1890. Il devient en 1901 assistant à la chaire des mammifères et des oiseaux dirigée par Émile Oustalet (1844-1905) où il succède à Eugène de Pousargues (1859-1901). Il devient le sous-directeur de ce laboratoire dirigé par Édouard Trouessart (1842-1927). Il étudie notamment les oiseaux rapportés par l’expédition antarctique française commandée par Jean-Baptiste Charcot (1867-1936). Le 26 janvier 1912, il devient l'un des deux vice-présidents fondateurs de la Ligue pour la protection des oiseaux en compagnie de Louis Ternier. Il le restera jusqu'en 1920.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_M%C3%A9n%C3%A9gaux</t>
+          <t>Auguste_Ménégaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ménégaux fait paraître environ 150 publications dont Les oiseaux de France (quatre volumes, Paul Lechevalier, 1932-1939). En 1909, il fonde avec Louis Denise (1863-1914) la Revue française d’ornithologie.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auguste_M%C3%A9n%C3%A9gaux</t>
+          <t>Auguste_Ménégaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Philippe Jaussaud et Édouard R. Brygoo, Du Jardin au Muséum en 516 biographies, Muséum national d’histoire naturelle de Paris, 2004, 630 p.</t>
         </is>
